--- a/insights/data.xlsx
+++ b/insights/data.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srilekhamalraju/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E0405E-B25D-3B48-9E16-00970F9CFEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B607CF87-6181-D040-9A71-0AB1F816FBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{9B1D33C2-DBF5-5742-BF90-10F67D0C75CE}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" activeTab="1" xr2:uid="{9B1D33C2-DBF5-5742-BF90-10F67D0C75CE}"/>
   </bookViews>
   <sheets>
     <sheet name="PUBLICATIONS" sheetId="1" r:id="rId1"/>
-    <sheet name="PUBLICATIONS_YEARWISE" sheetId="5" r:id="rId2"/>
-    <sheet name="MESH TERMS" sheetId="7" r:id="rId3"/>
-    <sheet name="CITATION_SUBSET" sheetId="8" r:id="rId4"/>
-    <sheet name="JOURNAL" sheetId="3" r:id="rId5"/>
-    <sheet name="JOURNAL_YEARWISE" sheetId="4" r:id="rId6"/>
+    <sheet name="Citations and References" sheetId="9" r:id="rId2"/>
+    <sheet name="RA SCORES" sheetId="10" r:id="rId3"/>
+    <sheet name="PUBLICATIONS_YEARWISE" sheetId="5" r:id="rId4"/>
+    <sheet name="MESH TERMS" sheetId="7" r:id="rId5"/>
+    <sheet name="CITATION_SUBSET" sheetId="8" r:id="rId6"/>
+    <sheet name="JOURNAL" sheetId="3" r:id="rId7"/>
+    <sheet name="JOURNAL_YEARWISE" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="531">
   <si>
     <t>  count  </t>
   </si>
@@ -1521,6 +1523,138 @@
   </si>
   <si>
     <t>PMID's count</t>
+  </si>
+  <si>
+    <t>select count(distinct pmid) from medline_master where number_of_references is null;</t>
+  </si>
+  <si>
+    <t> 32644345</t>
+  </si>
+  <si>
+    <t>PMID's that don’t have any number_of_references</t>
+  </si>
+  <si>
+    <t>select count(distinct id) from wos_cited;</t>
+  </si>
+  <si>
+    <t> 73015010</t>
+  </si>
+  <si>
+    <t>select count(distinct pmid) from wosid_to_pmid;</t>
+  </si>
+  <si>
+    <t> 20993269</t>
+  </si>
+  <si>
+    <t>select count(distinct wosid) from wosid_to_pmid;</t>
+  </si>
+  <si>
+    <t> select count(distinct m.pmid) from medline_master m join wosid_to_pmid p on p.pmid = m.pmid;</t>
+  </si>
+  <si>
+    <t> 20987207</t>
+  </si>
+  <si>
+    <t>select count(distinct pmid) from wosid_to_pmid a join wos_cited b on b.id = a.wosid;</t>
+  </si>
+  <si>
+    <t> 20993209</t>
+  </si>
+  <si>
+    <t>select count(distinct m.pmid) from medline_master m join wosid_to_pmid p on p.pmid = m.pmid join wos_cited c on c.id  = p.wosid;</t>
+  </si>
+  <si>
+    <t> 20987147</t>
+  </si>
+  <si>
+    <t>select count(distinct m.pmid) from medline_master m join wosid_to_pmid p on p.pmid = m.pmid join wos_cited c on c.id  = p.wosid where cite_count = '0';</t>
+  </si>
+  <si>
+    <t> 2581373</t>
+  </si>
+  <si>
+    <t> select count(distinct pmid) from pubmed_data_ref;</t>
+  </si>
+  <si>
+    <t> 8443028</t>
+  </si>
+  <si>
+    <t>select distinct idtype from pubmed_data_ref;</t>
+  </si>
+  <si>
+    <t> idtype </t>
+  </si>
+  <si>
+    <t> pubmed</t>
+  </si>
+  <si>
+    <t>(2 rows)</t>
+  </si>
+  <si>
+    <t>select count(distinct article_id) from pubmed_data_ref;</t>
+  </si>
+  <si>
+    <t>  8222</t>
+  </si>
+  <si>
+    <t>select count(distinct m.pmid) from medline_master m join wosid_to_pmid p on p.pmid = m.pmid join wos_cited c on c.id  = p.wosid where cite_count &lt;&gt; '0';</t>
+  </si>
+  <si>
+    <t> 18405774</t>
+  </si>
+  <si>
+    <t>select count(distinct b.pmid) from pubmed_data_ref a join medline_master b on a.pmid = b.pmid;</t>
+  </si>
+  <si>
+    <t>Number of distinct wosid's</t>
+  </si>
+  <si>
+    <t>Number of distinct pmid's</t>
+  </si>
+  <si>
+    <t>Number of distinct pmid's that are present in master table</t>
+  </si>
+  <si>
+    <t>Number of distinct pmid's that are present in master table where cite_count = 0</t>
+  </si>
+  <si>
+    <t>Number of distinct pmid's that are present in master table where cite_count &lt;&gt; 0</t>
+  </si>
+  <si>
+    <t> select count(distinct pmid) from medlinex_rascore_nodes;</t>
+  </si>
+  <si>
+    <t> 16258376</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>wos_references left</t>
+  </si>
+  <si>
+    <t> select count(distinct pmid) from medlinex_rascore_edges;</t>
+  </si>
+  <si>
+    <t>YEAR AND PUB_YEAR, REVISED_YEAR ARE NOT RELATED PROPERLY. NOT SURE WHAT IS THE YEAR COLUMN IN THE RA SCORES</t>
+  </si>
+  <si>
+    <t>select count(distinct a.pmid) from medlinex_rascore_nodes a join medline_master m on m.pmid = a.pmid ;</t>
+  </si>
+  <si>
+    <t> 16238766</t>
+  </si>
+  <si>
+    <t>MIN(PUB_YEAR,REVISED_YEAR)</t>
+  </si>
+  <si>
+    <t>Number of distinct pmid's in masters table</t>
+  </si>
+  <si>
+    <t>NUMBER OF PUBLICATIONS  WITH CITATIONS(PMID) (including only journal article type and has mesh terms)</t>
   </si>
 </sst>
 </file>
@@ -2076,10 +2210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80BA4E1-FE5C-BC42-9C18-F118C5854D74}">
-  <dimension ref="A6:G239"/>
+  <dimension ref="A6:G250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A35:A41"/>
+    <sheetView topLeftCell="A46" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -2345,181 +2479,193 @@
       <c r="A66" s="2"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
-        <v>448</v>
-      </c>
+      <c r="A89" s="2"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
-        <v>449</v>
-      </c>
+      <c r="A90" s="2"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
@@ -2916,6 +3062,39 @@
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="2"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2925,11 +3104,1010 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEE830B-904F-F145-8F04-867A94EDAC4D}">
+  <dimension ref="A1:D99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="164.6640625" customWidth="1"/>
+    <col min="4" max="4" width="71" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C1" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="1">
+        <v>52339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="1">
+        <v>16842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2019</v>
+      </c>
+      <c r="D5" s="1">
+        <v>296336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D6" s="1">
+        <v>733922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2017</v>
+      </c>
+      <c r="D7" s="1">
+        <v>752402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="C8" s="9">
+        <v>2016</v>
+      </c>
+      <c r="D8" s="1">
+        <v>748050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2015</v>
+      </c>
+      <c r="D9" s="1">
+        <v>730067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2014</v>
+      </c>
+      <c r="D10" s="1">
+        <v>705606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D11" s="1">
+        <v>738694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2012</v>
+      </c>
+      <c r="D12" s="1">
+        <v>646987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2011</v>
+      </c>
+      <c r="D13" s="1">
+        <v>606915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2010</v>
+      </c>
+      <c r="D14" s="1">
+        <v>574895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="C15" s="10">
+        <v>2009</v>
+      </c>
+      <c r="D15" s="1">
+        <v>548094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2008</v>
+      </c>
+      <c r="D16" s="1">
+        <v>519643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2007</v>
+      </c>
+      <c r="D17" s="1">
+        <v>492450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2006</v>
+      </c>
+      <c r="D18" s="1">
+        <v>483721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2005</v>
+      </c>
+      <c r="D19" s="1">
+        <v>423960</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D20" s="1">
+        <v>417560</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2003</v>
+      </c>
+      <c r="D21" s="1">
+        <v>372714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="9">
+        <v>2002</v>
+      </c>
+      <c r="D22" s="1">
+        <v>349918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="10">
+        <v>2001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>338838</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>329760</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77966E3A-F929-554B-AB19-5406B9A6669F}">
+  <dimension ref="A2:B73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:B73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="1">
+        <v>643584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1191324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1118457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1111685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1090356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1042643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B21" s="1">
+        <v>995071</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B22" s="1">
+        <v>940403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B23" s="1">
+        <v>875997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B24" s="1">
+        <v>822451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B25" s="1">
+        <v>783976</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B26" s="1">
+        <v>751071</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B27" s="1">
+        <v>710102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B28" s="1">
+        <v>686465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B29" s="1">
+        <v>656393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B30" s="1">
+        <v>621368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B31" s="1">
+        <v>583917</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B32" s="1">
+        <v>559091</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>2001</v>
+      </c>
+      <c r="B33" s="1">
+        <v>543723</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B34" s="1">
+        <v>530299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B51" s="1">
+        <v>20399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B52" s="1">
+        <v>69705</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B53" s="1">
+        <v>112914</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B54" s="1">
+        <v>854793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1217731</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1113014</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1117939</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1075123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1018727</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1005067</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B61" s="1">
+        <v>913472</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B62" s="1">
+        <v>846941</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B63" s="1">
+        <v>795310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B64" s="1">
+        <v>759382</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B65" s="1">
+        <v>721488</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B66" s="1">
+        <v>685510</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B67" s="1">
+        <v>666020</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B68" s="1">
+        <v>613006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B69" s="1">
+        <v>590604</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B70" s="1">
+        <v>538715</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B71" s="1">
+        <v>514553</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="10">
+        <v>2001</v>
+      </c>
+      <c r="B72" s="1">
+        <v>499523</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B73" s="1">
+        <v>488830</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30448596-FAAA-FC46-8F0C-E09519F117EB}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3600,19 +4778,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62AA066-E2B7-414B-99BF-58D7EB7C3AA1}">
   <dimension ref="A2:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="112.1640625" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" customWidth="1"/>
-    <col min="3" max="3" width="59.83203125" customWidth="1"/>
+    <col min="3" max="3" width="79.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3890,18 +5068,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E60997-BDD7-DC41-8D21-251D1F034FD9}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G1" sqref="G1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="76" customWidth="1"/>
     <col min="7" max="7" width="31.33203125" customWidth="1"/>
+    <col min="8" max="8" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -4092,11 +5271,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE31199-B9C7-A144-8DFE-44CD694B4904}">
   <dimension ref="A2:A439"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A38" sqref="A32:A38"/>
     </sheetView>
   </sheetViews>
@@ -6232,12 +7411,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E111C3-C77B-364F-B9AF-AEB05514B3D2}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/insights/data.xlsx
+++ b/insights/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srilekhamalraju/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43420C1-84CD-994B-87A9-F6F6B4441640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAED7F1D-265B-DD4D-B139-5D5F44DF575F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" activeTab="4" xr2:uid="{9B1D33C2-DBF5-5742-BF90-10F67D0C75CE}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" firstSheet="2" activeTab="4" xr2:uid="{9B1D33C2-DBF5-5742-BF90-10F67D0C75CE}"/>
   </bookViews>
   <sheets>
     <sheet name="PUBLICATIONS" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="685">
   <si>
     <t>  count  </t>
   </si>
@@ -2045,6 +2045,81 @@
   </si>
   <si>
     <t>create materialized view journal_mesh_similarscore as (select  m.journal_nlmuniqueid as journalid1,m1. journal_nlmuniqueid as journalid2,count(distinct h.descriptor_name) as overlapping_meshtermscount from journal_pmid m join  m1 on m.journal_nlmuniqueid &lt;&gt; m1.journal_nlmuniqueid and m.descriptor_name = m1.descriptor_name  group by m.journal_nlmuniqueid, m1.journal_nlmuniqueid );</t>
+  </si>
+  <si>
+    <t>create materialized view journal_pmid_agg as select distinct journal_nlmuniqueid, array_agg( distinct descriptor_name) from journal_pmid group by journal_nlmuniqueid;</t>
+  </si>
+  <si>
+    <t>create materialized view journal_journal_agg as select distinct a.journal_nlmuniqueid as journal1,b.journal_nlmuniqueid as journal2,a.array_agg as descriptor_name1,b.array_agg as descriptor_name2 from journal_pmid_agg a join journal_pmid_agg b on a.journal_nlmuniqueid &lt;&gt; b.journal_nlmuniqueid ;</t>
+  </si>
+  <si>
+    <t>create materialized view journal_mesh_relation as (select journal1, journal2, count(distinct descriptor_name) as common_meshtermscount from (select journal1,journal2,unnest(descriptor_name1) as descriptor_name from journal_journal_agg_id intersect select journal1,journal2,unnest(descriptor_name2) as descriptor_name from journal_journal_agg_id) a group by journal1,journal2);</t>
+  </si>
+  <si>
+    <t>create materialized view journal_mesh_relation_percentage as select a.journal1,a.journal2,common_meshtermscount/(b.count_meshterm+c.count_meshterm-common_meshtermscount)::float as percentage_common_meshtermscount from journal_mesh_relation a join journal_stats b on a.journal1=b.journal_nlmuniqueid join journal_stats c on a.journal2=c.journal_nlmuniqueid ;</t>
+  </si>
+  <si>
+    <t>select a.journal_nlmuniqueid as journal1, b.journal_nlmuniqueid as journal2,(10*avg(rascore::integer))::integer as rascore from medlinex_rascore_edges m join medline_master a on a.pmid=m.pmid join medline_master b on b.pmid = m.pmid2 where m.pmid = '28027735' group by a.journal_nlmuniqueid, b.journal_nlmuniqueid; </t>
+  </si>
+  <si>
+    <t> journal1 | journal2  |  rascore  </t>
+  </si>
+  <si>
+    <t>----------+-----------+-----------</t>
+  </si>
+  <si>
+    <t> 8106411  | 100956096 | 464400400</t>
+  </si>
+  <si>
+    <t> 8106411  | 101231512 | 353656840</t>
+  </si>
+  <si>
+    <t> 8106411  | 101518378 | 342843830</t>
+  </si>
+  <si>
+    <t> 8106411  | 373125    | 360974435</t>
+  </si>
+  <si>
+    <t> 8106411  | 401260    | 351032985</t>
+  </si>
+  <si>
+    <t> 8106411  | 45377     | 357813770</t>
+  </si>
+  <si>
+    <t> 8106411  | 7609541   | 372840063</t>
+  </si>
+  <si>
+    <t> 8106411  | 7708173   | 340668680</t>
+  </si>
+  <si>
+    <t> 8106411  | 7908150   | 333094680</t>
+  </si>
+  <si>
+    <t> 8106411  | 8106411   | 353355250</t>
+  </si>
+  <si>
+    <t> 8106411  | 8404726   | 333549150</t>
+  </si>
+  <si>
+    <t> 8106411  | 8506498   | 351490307</t>
+  </si>
+  <si>
+    <t> 8106411  | 9103300   | 389304860</t>
+  </si>
+  <si>
+    <t> 8106411  | 9105850   | 416542350</t>
+  </si>
+  <si>
+    <t> 8106411  | 9305697   | 367252840</t>
+  </si>
+  <si>
+    <t> 8106411  | 9314730   | 344757220</t>
+  </si>
+  <si>
+    <t> 8106411  | 9717360   | 379308290</t>
+  </si>
+  <si>
+    <t>create materialized view journal_journal_relation as select a.journal_nlmuniqueid as journal1,a.iso_abbrev as journal_name1, b.journal_nlmuniqueid as journal2,b.iso_abbrev as journal_name2,(avg(rascore::integer))::integer as rascore_avg, count(distinct b.pmid ) as count_repeatingjournals from medlinex_rascore_edges m join medline_master a on a.pmid=m.pmid join medline_master b on b.pmid = m.pmid2 group by a.journal_nlmuniqueid, b.journal_nlmuniqueid,a.iso_abbrev,b.iso_abbrev; </t>
   </si>
 </sst>
 </file>
@@ -4177,7 +4252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEE830B-904F-F145-8F04-867A94EDAC4D}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -4714,8 +4789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77966E3A-F929-554B-AB19-5406B9A6669F}">
   <dimension ref="A2:B95"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5252,7 +5327,7 @@
   <dimension ref="A3:K161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5841,10 +5916,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE93173C-911B-0948-A0BC-327B3272D57E}">
-  <dimension ref="A2:A11"/>
+  <dimension ref="A2:A158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5878,6 +5953,136 @@
         <v>658</v>
       </c>
     </row>
+    <row r="16" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A158" s="12" t="s">
+        <v>684</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5887,7 +6092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30448596-FAAA-FC46-8F0C-E09519F117EB}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -7056,8 +7261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE31199-B9C7-A144-8DFE-44CD694B4904}">
   <dimension ref="A2:A439"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/insights/data.xlsx
+++ b/insights/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srilekhamalraju/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAED7F1D-265B-DD4D-B139-5D5F44DF575F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AA2CCE-A7FF-7842-A9C1-4EE5BCC919A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" firstSheet="2" activeTab="4" xr2:uid="{9B1D33C2-DBF5-5742-BF90-10F67D0C75CE}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{9B1D33C2-DBF5-5742-BF90-10F67D0C75CE}"/>
   </bookViews>
   <sheets>
     <sheet name="PUBLICATIONS" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="690">
   <si>
     <t>  count  </t>
   </si>
@@ -1635,13 +1635,7 @@
     <t>PMID</t>
   </si>
   <si>
-    <t>wos_references left</t>
-  </si>
-  <si>
     <t> select count(distinct pmid) from medlinex_rascore_edges;</t>
-  </si>
-  <si>
-    <t>YEAR AND PUB_YEAR, REVISED_YEAR ARE NOT RELATED PROPERLY. NOT SURE WHAT IS THE YEAR COLUMN IN THE RA SCORES</t>
   </si>
   <si>
     <t>select count(distinct a.pmid) from medlinex_rascore_nodes a join medline_master m on m.pmid = a.pmid ;</t>
@@ -2120,13 +2114,34 @@
   </si>
   <si>
     <t>create materialized view journal_journal_relation as select a.journal_nlmuniqueid as journal1,a.iso_abbrev as journal_name1, b.journal_nlmuniqueid as journal2,b.iso_abbrev as journal_name2,(avg(rascore::integer))::integer as rascore_avg, count(distinct b.pmid ) as count_repeatingjournals from medlinex_rascore_edges m join medline_master a on a.pmid=m.pmid join medline_master b on b.pmid = m.pmid2 group by a.journal_nlmuniqueid, b.journal_nlmuniqueid,a.iso_abbrev,b.iso_abbrev; </t>
+  </si>
+  <si>
+    <t>LAST 5 YEARS DATA WHERE pub_year is null and publicationtype = 'Journal Article'</t>
+  </si>
+  <si>
+    <t>NUMBER OF DISTINCT PMID'S in RASCORE NODES TABLE</t>
+  </si>
+  <si>
+    <t>NUMBER OF DISTINCT PMID'S in RASCORE NODES TABLE and MASTER TABLE</t>
+  </si>
+  <si>
+    <t>NUMBER OF DISTINCT JOURNALS ASSOCIATED WITH RASCORE NODES AND MASTER TABLE</t>
+  </si>
+  <si>
+    <t>NUMBER OF DISTINCT JOURNALS ASSOCIATED WITH RASCORE NODES AND MASTER TABLE AND HAS MESH TERMS</t>
+  </si>
+  <si>
+    <t>NUMBER OF DISTINCT PMID'S in RASCORE EDGES TABLE</t>
+  </si>
+  <si>
+    <t>NUMBER OF DISTINCT PMID'S in RASCORE NODES TABLE AND MASTER TABLE WITH HAS MESH TERMS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2181,6 +2196,17 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2247,7 +2273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2265,6 +2291,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2680,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80BA4E1-FE5C-BC42-9C18-F118C5854D74}">
   <dimension ref="A6:G250"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -2992,7 +3020,7 @@
       <c r="A77" s="2"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="4" t="s">
         <v>439</v>
       </c>
     </row>
@@ -3048,7 +3076,9 @@
       <c r="A89" s="2"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
+      <c r="A90" s="4" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
@@ -3576,7 +3606,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B26"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4250,16 +4280,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEE830B-904F-F145-8F04-867A94EDAC4D}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="164.6640625" customWidth="1"/>
-    <col min="4" max="4" width="71" customWidth="1"/>
+    <col min="4" max="4" width="98.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -4267,7 +4297,7 @@
         <v>409</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -4656,129 +4686,124 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>515</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>5</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>529</v>
-      </c>
+      <c r="A75" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>5</v>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>505</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>506</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>9</v>
+        <v>510</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4787,10 +4812,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77966E3A-F929-554B-AB19-5406B9A6669F}">
-  <dimension ref="A2:B95"/>
+  <dimension ref="A2:B99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4799,521 +4824,555 @@
     <col min="2" max="2" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>519</v>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>520</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>520</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B15" s="1">
-        <v>643584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1191324</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B17" s="1">
-        <v>1118457</v>
+        <v>643584</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B18" s="1">
-        <v>1111685</v>
+        <v>1191324</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B19" s="1">
-        <v>1090356</v>
+        <v>1118457</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B20" s="1">
-        <v>1042643</v>
+        <v>1111685</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B21" s="1">
-        <v>995071</v>
+        <v>1090356</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B22" s="1">
-        <v>940403</v>
+        <v>1042643</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B23" s="1">
-        <v>875997</v>
+        <v>995071</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B24" s="1">
-        <v>822451</v>
+        <v>940403</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="B25" s="1">
-        <v>783976</v>
+        <v>875997</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B26" s="1">
-        <v>751071</v>
+        <v>822451</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B27" s="1">
-        <v>710102</v>
+        <v>783976</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B28" s="1">
-        <v>686465</v>
+        <v>751071</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B29" s="1">
-        <v>656393</v>
+        <v>710102</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B30" s="1">
-        <v>621368</v>
+        <v>686465</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B31" s="1">
-        <v>583917</v>
+        <v>656393</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B32" s="1">
-        <v>559091</v>
+        <v>621368</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B33" s="1">
-        <v>543723</v>
+        <v>583917</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B34" s="1">
+        <v>559091</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>2001</v>
+      </c>
+      <c r="B35" s="1">
+        <v>543723</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
         <v>2000</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B36" s="1">
         <v>530299</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>13</v>
+    <row r="42" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>3</v>
+        <v>524</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>527</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="B50" s="8" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="9">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="9">
         <v>2022</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B53" s="1">
         <v>20399</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="10">
-        <v>2021</v>
-      </c>
-      <c r="B52" s="1">
-        <v>69705</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B53" s="1">
-        <v>112914</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B54" s="1">
-        <v>854793</v>
+        <v>69705</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="9">
-        <v>2018</v>
+      <c r="A55" s="10">
+        <v>2020</v>
       </c>
       <c r="B55" s="1">
-        <v>1217731</v>
+        <v>112914</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B56" s="1">
-        <v>1113014</v>
+        <v>854793</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B57" s="1">
-        <v>1117939</v>
+        <v>1217731</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B58" s="1">
-        <v>1075123</v>
+        <v>1113014</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B59" s="1">
-        <v>1018727</v>
+        <v>1117939</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B60" s="1">
-        <v>1005067</v>
+        <v>1075123</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B61" s="1">
-        <v>913472</v>
+        <v>1018727</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B62" s="1">
-        <v>846941</v>
+        <v>1005067</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B63" s="1">
-        <v>795310</v>
+        <v>913472</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="B64" s="1">
-        <v>759382</v>
+        <v>846941</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B65" s="1">
-        <v>721488</v>
+        <v>795310</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B66" s="1">
-        <v>685510</v>
+        <v>759382</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B67" s="1">
-        <v>666020</v>
+        <v>721488</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B68" s="1">
-        <v>613006</v>
+        <v>685510</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B69" s="1">
-        <v>590604</v>
+        <v>666020</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B70" s="1">
-        <v>538715</v>
+        <v>613006</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B71" s="1">
-        <v>514553</v>
+        <v>590604</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B72" s="1">
-        <v>499523</v>
+        <v>538715</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B73" s="1">
+        <v>514553</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="10">
+        <v>2001</v>
+      </c>
+      <c r="B74" s="1">
+        <v>499523</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="9">
         <v>2000</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B75" s="1">
         <v>488830</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>22</v>
+    <row r="79" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>23</v>
+        <v>647</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>650</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>22</v>
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>23</v>
+        <v>649</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>652</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>654</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>656</v>
-      </c>
+      <c r="A92" s="1"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>655</v>
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5334,174 +5393,174 @@
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K13" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K14" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K19" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K20" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K21" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K22" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K23" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K25" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K26" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K27" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K28" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K29" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -5511,402 +5570,402 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -5916,10 +5975,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE93173C-911B-0948-A0BC-327B3272D57E}">
-  <dimension ref="A2:A158"/>
+  <dimension ref="A2:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128:G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5929,12 +5988,12 @@
   <sheetData>
     <row r="2" spans="1:1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -5942,7 +6001,7 @@
     </row>
     <row r="8" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -5950,32 +6009,32 @@
     </row>
     <row r="11" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
@@ -5985,102 +6044,134 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>683</v>
-      </c>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="13"/>
+      <c r="B128" s="14"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="13"/>
+      <c r="B129" s="13"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="13"/>
+      <c r="B130" s="13"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="13"/>
+      <c r="B131" s="13"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="13"/>
+      <c r="B132" s="13"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="13"/>
+      <c r="B133" s="13"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="13"/>
+      <c r="B134" s="13"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="13"/>
+      <c r="B135" s="13"/>
     </row>
     <row r="158" spans="1:1" ht="68" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30448596-FAAA-FC46-8F0C-E09519F117EB}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -7261,7 +7352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE31199-B9C7-A144-8DFE-44CD694B4904}">
   <dimension ref="A2:A439"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
